--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.444889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.444889</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112821388.580897</v>
+        <v>46017956.4904298</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9701.061852275088</v>
+        <v>1083688.028099909</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18314.20202829704</v>
+        <v>1996736.382341039</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26927.34220431899</v>
+        <v>2909784.736582172</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35565.3369870137</v>
+        <v>3822833.090823303</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44203.33176970843</v>
+        <v>4735881.445064436</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52841.32655240315</v>
+        <v>5648929.799305567</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61479.32133509788</v>
+        <v>6561978.153546695</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70117.31611779262</v>
+        <v>7475026.507787822</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78755.31090048733</v>
+        <v>8388074.86202895</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87393.30568318158</v>
+        <v>9301123.216270076</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96031.30046587627</v>
+        <v>10214171.57051121</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104669.295248571</v>
+        <v>11127219.92475235</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113307.2900312657</v>
+        <v>12040268.27899349</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121945.2848139603</v>
+        <v>12953316.63323462</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130583.279596655</v>
+        <v>13866364.98747576</v>
       </c>
     </row>
   </sheetData>
